--- a/2022.xlsx
+++ b/2022.xlsx
@@ -259,9 +259,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -406,38 +410,38 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="36.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -448,16 +452,16 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>290</v>
       </c>
     </row>
@@ -468,16 +472,16 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -488,16 +492,16 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>330</v>
       </c>
     </row>
@@ -508,16 +512,16 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>80</v>
       </c>
     </row>
@@ -528,16 +532,16 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,16 +552,16 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -568,16 +572,16 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>2524</v>
       </c>
     </row>
@@ -588,16 +592,16 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -608,16 +612,16 @@
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -628,16 +632,16 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>147</v>
       </c>
     </row>
@@ -648,16 +652,16 @@
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>1454</v>
       </c>
     </row>
@@ -668,16 +672,16 @@
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>44</v>
       </c>
     </row>
@@ -688,13 +692,13 @@
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -705,16 +709,16 @@
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>4589</v>
       </c>
     </row>
@@ -725,16 +729,16 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>3581</v>
       </c>
     </row>
@@ -745,16 +749,16 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>1921</v>
       </c>
     </row>
@@ -765,16 +769,16 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="4" t="n">
         <v>153</v>
       </c>
     </row>
@@ -785,16 +789,16 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4" t="n">
         <v>542</v>
       </c>
     </row>
@@ -805,16 +809,16 @@
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4" t="n">
         <v>47</v>
       </c>
     </row>
@@ -825,16 +829,16 @@
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4" t="n">
         <v>772</v>
       </c>
     </row>
@@ -845,16 +849,16 @@
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="4" t="n">
         <v>35</v>
       </c>
     </row>
@@ -865,13 +869,13 @@
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="4" t="n">
         <v>370</v>
       </c>
     </row>
@@ -882,16 +886,16 @@
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="4" t="n">
         <v>123</v>
       </c>
     </row>
@@ -902,16 +906,16 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="4" t="n">
         <v>271</v>
       </c>
     </row>
@@ -922,16 +926,16 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4" t="n">
         <v>87</v>
       </c>
     </row>
@@ -942,16 +946,16 @@
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="4" t="n">
         <v>159</v>
       </c>
     </row>
@@ -962,16 +966,16 @@
       <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="4" t="n">
         <v>56</v>
       </c>
     </row>
@@ -982,16 +986,16 @@
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="4" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1002,16 +1006,16 @@
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="4" t="n">
         <v>154</v>
       </c>
     </row>
@@ -1022,13 +1026,13 @@
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="4" t="n">
         <v>59</v>
       </c>
     </row>
@@ -1039,16 +1043,16 @@
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1059,16 +1063,16 @@
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="4" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1079,16 +1083,16 @@
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1099,16 +1103,16 @@
       <c r="B35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="4" t="n">
         <v>334</v>
       </c>
     </row>
@@ -1119,16 +1123,16 @@
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="4" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1139,16 +1143,16 @@
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="4" t="n">
         <v>44</v>
       </c>
     </row>
@@ -1159,16 +1163,16 @@
       <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="4" t="n">
         <v>1306</v>
       </c>
     </row>
@@ -1179,16 +1183,16 @@
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="4" t="n">
         <v>951</v>
       </c>
     </row>
@@ -1199,16 +1203,16 @@
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1219,16 +1223,16 @@
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" s="4" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1239,16 +1243,16 @@
       <c r="B42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="4" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1259,16 +1263,16 @@
       <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" s="4" t="n">
         <v>719</v>
       </c>
     </row>
@@ -1297,7 +1301,7 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="1131.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
     </row>
